--- a/payments.xlsx
+++ b/payments.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/2924281/Desktop/jotarepos/capmout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E3D37-5BC0-6946-AB7E-38F71FF6B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC39FC58-BC13-A643-B6B8-D62AD2D406FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2140" yWindow="5280" windowWidth="22820" windowHeight="12840" xr2:uid="{82E18DA6-7D86-5644-B0A1-E9837D9571DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -509,7 +510,7 @@
   <dimension ref="B1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I12"/>
+      <selection activeCell="H13" sqref="H13:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1366,4 +1367,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FBD3FE-C425-4045-BCE8-11E1B57D4295}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>